--- a/pag190ejer7.xlsx
+++ b/pag190ejer7.xlsx
@@ -1,32 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25928"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\2DAW\Empressa Iniciativa DAW Diurno\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98644825-F940-4BEB-88FA-851736DD05B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja2" sheetId="1" r:id="rId1"/>
     <sheet name="Hoja3" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>mohamed derkaoui merzouk lofti</author>
   </authors>
   <commentList>
-    <comment ref="M21" authorId="0" shapeId="0" xr:uid="{870884A9-8C8A-4BDD-BF21-2EA8820E2F3E}">
+    <comment ref="M21" authorId="0">
       <text>
         <r>
           <rPr>
@@ -50,7 +44,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M22" authorId="0" shapeId="0" xr:uid="{5EE74A43-3B29-4D52-B57E-989145D8A265}">
+    <comment ref="M22" authorId="0">
       <text>
         <r>
           <rPr>
@@ -74,7 +68,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M23" authorId="0" shapeId="0" xr:uid="{EEC5EF43-6DA8-460B-8E63-5AAE1245C7CC}">
+    <comment ref="M23" authorId="0">
       <text>
         <r>
           <rPr>
@@ -283,12 +277,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt numFmtId="44" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
-    <numFmt numFmtId="164" formatCode="_-* #,##0.00\ [$€-C0A]_-;\-* #,##0.00\ [$€-C0A]_-;_-* &quot;-&quot;??\ [$€-C0A]_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="_-* #,##0.00\ [$€-C0A]_-;\-* #,##0.00\ [$€-C0A]_-;_-* &quot;-&quot;??\ [$€-C0A]_-;_-@_-"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -419,7 +413,7 @@
   </borders>
   <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -428,60 +422,60 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="4" fillId="4" borderId="0" xfId="2" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="5" fillId="5" borderId="0" xfId="3" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="6" borderId="1" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="2"/>
+    <xf numFmtId="164" fontId="4" fillId="4" borderId="1" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="5" borderId="1" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="4" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="3" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="4" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="2" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="4" fillId="4" borderId="0" xfId="2" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="3" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="5" borderId="0" xfId="3" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="4" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="6" borderId="1" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="2"/>
-    <xf numFmtId="44" fontId="4" fillId="4" borderId="1" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="5" borderId="1" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="5">
-    <cellStyle name="Bueno" xfId="2" builtinId="26"/>
+    <cellStyle name="Buena" xfId="2" builtinId="26"/>
     <cellStyle name="Incorrecto" xfId="3" builtinId="27"/>
     <cellStyle name="Moneda" xfId="1" builtinId="4"/>
     <cellStyle name="Neutral" xfId="4" builtinId="28"/>
@@ -784,24 +778,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
   <dimension ref="B1:S23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView tabSelected="1" topLeftCell="C13" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="R10" sqref="R10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="25.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14" style="3" customWidth="1"/>
     <col min="3" max="3" width="31.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="32.42578125" customWidth="1"/>
     <col min="5" max="12" width="14.140625" hidden="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="16.28515625" style="24" customWidth="1"/>
+    <col min="13" max="13" width="16.28515625" style="17" customWidth="1"/>
     <col min="14" max="14" width="25.7109375" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="15.5703125" style="5" customWidth="1"/>
     <col min="16" max="16" width="15.7109375" bestFit="1" customWidth="1"/>
@@ -810,18 +804,18 @@
     <col min="19" max="19" width="18.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="N1" s="9" t="s">
+    <row r="1" spans="2:19" ht="19.5" customHeight="1">
+      <c r="N1" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="O1" s="10"/>
-      <c r="Q1" s="9" t="s">
+      <c r="O1" s="21"/>
+      <c r="Q1" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="R1" s="10"/>
-    </row>
-    <row r="2" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="M2" s="25" t="s">
+      <c r="R1" s="21"/>
+    </row>
+    <row r="2" spans="2:19" ht="19.5" customHeight="1">
+      <c r="M2" s="22" t="s">
         <v>57</v>
       </c>
       <c r="N2" t="s">
@@ -830,7 +824,7 @@
       <c r="O2" s="4">
         <v>6000</v>
       </c>
-      <c r="P2" s="15" t="s">
+      <c r="P2" s="23" t="s">
         <v>16</v>
       </c>
       <c r="Q2" t="s">
@@ -839,29 +833,29 @@
       <c r="R2" s="4">
         <v>12000</v>
       </c>
-      <c r="S2" s="19" t="s">
+      <c r="S2" s="18" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="M3" s="25"/>
+    <row r="3" spans="2:19" ht="19.5" customHeight="1">
+      <c r="M3" s="22"/>
       <c r="N3" t="s">
         <v>4</v>
       </c>
       <c r="O3" s="4">
         <v>6000</v>
       </c>
-      <c r="P3" s="15"/>
+      <c r="P3" s="23"/>
       <c r="Q3" t="s">
         <v>5</v>
       </c>
       <c r="R3" s="6">
         <v>15000</v>
       </c>
-      <c r="S3" s="19"/>
-    </row>
-    <row r="4" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="M4" s="24" t="s">
+      <c r="S3" s="18"/>
+    </row>
+    <row r="4" spans="2:19" ht="19.5" customHeight="1">
+      <c r="M4" s="17" t="s">
         <v>21</v>
       </c>
       <c r="N4" t="s">
@@ -870,32 +864,32 @@
       <c r="O4" s="4">
         <v>9000</v>
       </c>
-      <c r="P4" s="15"/>
+      <c r="P4" s="23"/>
       <c r="Q4" t="s">
         <v>19</v>
       </c>
       <c r="R4" s="4">
         <v>3425</v>
       </c>
-      <c r="S4" s="19"/>
-    </row>
-    <row r="5" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S4" s="18"/>
+    </row>
+    <row r="5" spans="2:19" ht="19.5" customHeight="1">
       <c r="N5" t="s">
         <v>24</v>
       </c>
       <c r="O5" s="4">
         <v>1000</v>
       </c>
-      <c r="P5" s="15"/>
-      <c r="S5" s="20">
+      <c r="P5" s="23"/>
+      <c r="S5" s="13">
         <f>SUM(R2:R4)</f>
         <v>30425</v>
       </c>
     </row>
-    <row r="6" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:19" ht="19.5" customHeight="1">
       <c r="B6" s="4"/>
       <c r="C6" s="2"/>
-      <c r="M6" s="24" t="s">
+      <c r="M6" s="17" t="s">
         <v>22</v>
       </c>
       <c r="N6" t="s">
@@ -904,29 +898,29 @@
       <c r="O6" s="4">
         <v>30000</v>
       </c>
-      <c r="P6" s="15"/>
+      <c r="P6" s="23"/>
       <c r="Q6" t="s">
         <v>25</v>
       </c>
       <c r="R6" s="4">
         <v>22000</v>
       </c>
-      <c r="S6" s="21" t="s">
+      <c r="S6" s="14" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="7" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:19" ht="19.5" customHeight="1">
       <c r="B7" s="4"/>
-      <c r="P7" s="16">
+      <c r="P7" s="11">
         <f>SUM(O2:O6)</f>
         <v>52000</v>
       </c>
-      <c r="S7" s="22">
+      <c r="S7" s="15">
         <f>R6</f>
         <v>22000</v>
       </c>
     </row>
-    <row r="8" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:19" ht="19.5" customHeight="1">
       <c r="B8" s="4"/>
       <c r="C8" s="2"/>
       <c r="N8" t="s">
@@ -935,7 +929,7 @@
       <c r="O8" s="4">
         <v>2000</v>
       </c>
-      <c r="P8" s="17" t="s">
+      <c r="P8" s="19" t="s">
         <v>20</v>
       </c>
       <c r="Q8" t="s">
@@ -944,11 +938,11 @@
       <c r="R8" s="4">
         <v>10000</v>
       </c>
-      <c r="S8" s="17" t="s">
+      <c r="S8" s="19" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:19" ht="19.5" customHeight="1">
       <c r="B9" s="4"/>
       <c r="N9" t="s">
         <v>54</v>
@@ -957,16 +951,16 @@
         <f>-(O8*0.3)</f>
         <v>-600</v>
       </c>
-      <c r="P9" s="17"/>
+      <c r="P9" s="19"/>
       <c r="Q9" t="s">
         <v>27</v>
       </c>
       <c r="R9" s="4">
-        <v>26175</v>
-      </c>
-      <c r="S9" s="17"/>
-    </row>
-    <row r="10" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>21375</v>
+      </c>
+      <c r="S9" s="19"/>
+    </row>
+    <row r="10" spans="2:19" ht="19.5" customHeight="1">
       <c r="B10" s="4"/>
       <c r="N10" t="s">
         <v>18</v>
@@ -974,16 +968,16 @@
       <c r="O10" s="3">
         <v>40000</v>
       </c>
-      <c r="P10" s="17"/>
+      <c r="P10" s="19"/>
       <c r="Q10" t="s">
         <v>23</v>
       </c>
       <c r="R10" s="4">
         <v>4800</v>
       </c>
-      <c r="S10" s="17"/>
-    </row>
-    <row r="11" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S10" s="19"/>
+    </row>
+    <row r="11" spans="2:19" ht="19.5" customHeight="1">
       <c r="B11" s="4"/>
       <c r="N11" t="s">
         <v>55</v>
@@ -992,17 +986,17 @@
         <f>-(O10*0.12)</f>
         <v>-4800</v>
       </c>
-      <c r="P11" s="17"/>
-      <c r="S11" s="23">
+      <c r="P11" s="19"/>
+      <c r="S11" s="16">
         <f>SUM(R8:R10)</f>
-        <v>40975</v>
-      </c>
-    </row>
-    <row r="12" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>36175</v>
+      </c>
+    </row>
+    <row r="12" spans="2:19" ht="19.5" customHeight="1">
       <c r="B12" s="4"/>
-      <c r="P12" s="18">
-        <f>SUM(O8:O10)</f>
-        <v>41400</v>
+      <c r="P12" s="12">
+        <f>SUM(O8:O11)</f>
+        <v>36600</v>
       </c>
       <c r="Q12" t="s">
         <v>11</v>
@@ -1012,32 +1006,32 @@
         <v>52425</v>
       </c>
     </row>
-    <row r="13" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:19" ht="19.5" customHeight="1">
       <c r="B13" s="4"/>
       <c r="N13" t="s">
         <v>12</v>
       </c>
       <c r="P13" s="4">
         <f>P7+P12</f>
-        <v>93400</v>
+        <v>88600</v>
       </c>
       <c r="S13" s="5">
         <f>S11+S12</f>
-        <v>93400</v>
-      </c>
-    </row>
-    <row r="14" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+        <v>88600</v>
+      </c>
+    </row>
+    <row r="14" spans="2:19" ht="19.5" customHeight="1">
       <c r="B14" s="4"/>
       <c r="C14" s="1"/>
     </row>
-    <row r="15" spans="2:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:19" ht="19.5" customHeight="1">
       <c r="B15" s="4"/>
     </row>
-    <row r="16" spans="2:19" ht="21" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:19" ht="21">
       <c r="B16" s="4"/>
       <c r="C16" s="1"/>
     </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:13">
       <c r="C19" t="s">
         <v>16</v>
       </c>
@@ -1046,7 +1040,7 @@
         <v>52000</v>
       </c>
     </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:13">
       <c r="C20" t="s">
         <v>14</v>
       </c>
@@ -1055,7 +1049,7 @@
         <v>30425</v>
       </c>
     </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:13">
       <c r="C21" t="s">
         <v>13</v>
       </c>
@@ -1064,7 +1058,7 @@
         <v>21575</v>
       </c>
     </row>
-    <row r="22" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:13">
       <c r="C22" t="s">
         <v>15</v>
       </c>
@@ -1072,17 +1066,17 @@
         <f>D19/D20</f>
         <v>1.7091207888249795</v>
       </c>
-      <c r="M22" s="24" t="s">
+      <c r="M22" s="17" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:13">
       <c r="C23" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="8">
         <f>S12/(S12+S11)</f>
-        <v>0.5612955032119914</v>
+        <v>0.59170428893905191</v>
       </c>
     </row>
   </sheetData>
@@ -1101,7 +1095,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
@@ -1111,7 +1105,7 @@
       <selection activeCell="F38" sqref="F38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="3" max="3" width="27.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="19.85546875" bestFit="1" customWidth="1"/>
@@ -1119,305 +1113,305 @@
     <col min="6" max="6" width="11.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="E2" s="11"/>
-    </row>
-    <row r="3" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="E3" s="11"/>
-    </row>
-    <row r="4" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="E4" s="11"/>
-    </row>
-    <row r="5" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C5" s="12" t="s">
+    <row r="2" spans="3:6">
+      <c r="E2" s="9"/>
+    </row>
+    <row r="3" spans="3:6">
+      <c r="E3" s="9"/>
+    </row>
+    <row r="4" spans="3:6">
+      <c r="E4" s="9"/>
+    </row>
+    <row r="5" spans="3:6">
+      <c r="C5" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="E5" s="11"/>
-    </row>
-    <row r="6" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C6" s="12"/>
+      <c r="E5" s="9"/>
+    </row>
+    <row r="6" spans="3:6">
+      <c r="C6" s="24"/>
       <c r="D6" t="s">
         <v>29</v>
       </c>
-      <c r="E6" s="11">
+      <c r="E6" s="9">
         <v>112300</v>
       </c>
     </row>
-    <row r="7" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="D7" s="12"/>
-      <c r="E7" s="12"/>
-    </row>
-    <row r="8" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C8" s="13" t="s">
+    <row r="7" spans="3:6">
+      <c r="D7" s="24"/>
+      <c r="E7" s="24"/>
+    </row>
+    <row r="8" spans="3:6">
+      <c r="C8" s="25" t="s">
         <v>30</v>
       </c>
       <c r="D8" t="s">
         <v>31</v>
       </c>
-      <c r="E8" s="11">
+      <c r="E8" s="9">
         <v>5000</v>
       </c>
     </row>
-    <row r="9" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C9" s="13"/>
+    <row r="9" spans="3:6">
+      <c r="C9" s="25"/>
       <c r="D9" t="s">
         <v>32</v>
       </c>
-      <c r="E9" s="11">
+      <c r="E9" s="9">
         <v>500</v>
       </c>
     </row>
-    <row r="10" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C10" s="13"/>
+    <row r="10" spans="3:6">
+      <c r="C10" s="25"/>
       <c r="D10" t="s">
         <v>33</v>
       </c>
-      <c r="E10" s="11">
+      <c r="E10" s="9">
         <v>3000</v>
       </c>
       <c r="F10" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="11" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C11" s="13"/>
+    <row r="11" spans="3:6">
+      <c r="C11" s="25"/>
       <c r="D11" t="s">
         <v>35</v>
       </c>
-      <c r="E11" s="11">
+      <c r="E11" s="9">
         <v>10000</v>
       </c>
     </row>
-    <row r="12" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C12" s="13"/>
+    <row r="12" spans="3:6">
+      <c r="C12" s="25"/>
       <c r="D12" t="s">
         <v>36</v>
       </c>
-      <c r="E12" s="11">
+      <c r="E12" s="9">
         <v>4000</v>
       </c>
     </row>
-    <row r="13" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C13" s="13"/>
+    <row r="13" spans="3:6">
+      <c r="C13" s="25"/>
       <c r="D13" t="s">
         <v>37</v>
       </c>
-      <c r="E13" s="11">
+      <c r="E13" s="9">
         <v>12000</v>
       </c>
     </row>
-    <row r="14" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C14" s="13"/>
+    <row r="14" spans="3:6">
+      <c r="C14" s="25"/>
       <c r="D14" t="s">
         <v>38</v>
       </c>
-      <c r="E14" s="11">
+      <c r="E14" s="9">
         <v>600</v>
       </c>
     </row>
-    <row r="15" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C15" s="13"/>
+    <row r="15" spans="3:6">
+      <c r="C15" s="25"/>
       <c r="D15" t="s">
         <v>39</v>
       </c>
-      <c r="E15" s="11">
+      <c r="E15" s="9">
         <v>800</v>
       </c>
     </row>
-    <row r="16" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C16" s="13"/>
+    <row r="16" spans="3:6">
+      <c r="C16" s="25"/>
       <c r="D16" t="s">
         <v>40</v>
       </c>
-      <c r="E16" s="11">
+      <c r="E16" s="9">
         <v>500</v>
       </c>
     </row>
-    <row r="17" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C17" s="13"/>
+    <row r="17" spans="3:6">
+      <c r="C17" s="25"/>
       <c r="D17" t="s">
         <v>41</v>
       </c>
-      <c r="E17" s="11">
+      <c r="E17" s="9">
         <v>50000</v>
       </c>
     </row>
-    <row r="18" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C18" s="13"/>
+    <row r="18" spans="3:6">
+      <c r="C18" s="25"/>
       <c r="D18" t="s">
         <v>42</v>
       </c>
-      <c r="E18" s="11">
+      <c r="E18" s="9">
         <v>2000</v>
       </c>
     </row>
-    <row r="19" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C19" s="13"/>
+    <row r="19" spans="3:6">
+      <c r="C19" s="25"/>
       <c r="D19" t="s">
         <v>43</v>
       </c>
-      <c r="E19" s="11">
+      <c r="E19" s="9">
         <v>1200</v>
       </c>
     </row>
-    <row r="20" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C20" s="13"/>
+    <row r="20" spans="3:6">
+      <c r="C20" s="25"/>
       <c r="D20" t="s">
         <v>44</v>
       </c>
-      <c r="E20" s="11">
+      <c r="E20" s="9">
         <f>F44</f>
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C21" s="13"/>
+    <row r="21" spans="3:6">
+      <c r="C21" s="25"/>
       <c r="D21" t="s">
         <v>12</v>
       </c>
-      <c r="E21" s="11">
+      <c r="E21" s="9">
         <f>SUM(E8:E20)</f>
         <v>89600</v>
       </c>
     </row>
-    <row r="22" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="E22" s="11"/>
-    </row>
-    <row r="23" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="E23" s="11"/>
-    </row>
-    <row r="24" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:6">
+      <c r="E22" s="9"/>
+    </row>
+    <row r="23" spans="3:6">
+      <c r="E23" s="9"/>
+    </row>
+    <row r="24" spans="3:6">
       <c r="C24" t="s">
         <v>45</v>
       </c>
-      <c r="E24" s="11">
+      <c r="E24" s="9">
         <f>E6-E21</f>
         <v>22700</v>
       </c>
     </row>
-    <row r="25" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:6">
       <c r="C25" t="s">
         <v>46</v>
       </c>
       <c r="D25" t="s">
         <v>47</v>
       </c>
-      <c r="E25" s="11">
+      <c r="E25" s="9">
         <v>1200</v>
       </c>
     </row>
-    <row r="26" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:6">
       <c r="C26" t="s">
         <v>48</v>
       </c>
-      <c r="E26" s="11">
+      <c r="E26" s="9">
         <f>-E25</f>
         <v>-1200</v>
       </c>
     </row>
-    <row r="27" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:6">
       <c r="C27" t="s">
         <v>49</v>
       </c>
-      <c r="E27" s="11">
+      <c r="E27" s="9">
         <f>E24+E26</f>
         <v>21500</v>
       </c>
     </row>
-    <row r="28" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:6">
       <c r="C28" t="s">
         <v>50</v>
       </c>
-      <c r="D28" s="14">
+      <c r="D28" s="10">
         <v>-0.25</v>
       </c>
-      <c r="E28" s="11">
+      <c r="E28" s="9">
         <f>0.75*E27</f>
         <v>16125</v>
       </c>
-      <c r="F28" s="11"/>
-    </row>
-    <row r="29" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="E29" s="11"/>
-    </row>
-    <row r="30" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="E30" s="11"/>
-    </row>
-    <row r="33" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="F28" s="9"/>
+    </row>
+    <row r="29" spans="3:6">
+      <c r="E29" s="9"/>
+    </row>
+    <row r="30" spans="3:6">
+      <c r="E30" s="9"/>
+    </row>
+    <row r="33" spans="3:6">
       <c r="C33" t="s">
         <v>44</v>
       </c>
-      <c r="E33" s="11"/>
-    </row>
-    <row r="34" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="E33" s="9"/>
+    </row>
+    <row r="34" spans="3:6">
       <c r="D34" t="s">
         <v>51</v>
       </c>
-      <c r="E34" s="11">
+      <c r="E34" s="9">
         <v>10000</v>
       </c>
-      <c r="F34" s="11">
+      <c r="F34" s="9">
         <f>E34*10/100</f>
         <v>1000</v>
       </c>
     </row>
-    <row r="35" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:6">
       <c r="D35" t="s">
         <v>52</v>
       </c>
-      <c r="E35" s="11">
+      <c r="E35" s="9">
         <v>1000</v>
       </c>
-      <c r="F35" s="11">
+      <c r="F35" s="9">
         <f>E35*(26/100)</f>
         <v>260</v>
       </c>
     </row>
-    <row r="36" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:6">
       <c r="D36" t="s">
         <v>18</v>
       </c>
-      <c r="E36" s="11">
+      <c r="E36" s="9">
         <v>15000</v>
       </c>
-      <c r="F36" s="11">
+      <c r="F36" s="9">
         <f>E36*(12/100)</f>
         <v>1800</v>
       </c>
     </row>
-    <row r="37" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:6">
       <c r="D37" t="s">
         <v>53</v>
       </c>
-      <c r="E37" s="11">
+      <c r="E37" s="9">
         <v>5000</v>
       </c>
-      <c r="F37" s="11">
+      <c r="F37" s="9">
         <f>E37*(10/100)</f>
         <v>500</v>
       </c>
     </row>
-    <row r="38" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:6">
       <c r="D38" t="s">
         <v>12</v>
       </c>
-      <c r="E38" s="11"/>
-      <c r="F38" s="11">
+      <c r="E38" s="9"/>
+      <c r="F38" s="9">
         <f>SUM(F34:F37)</f>
         <v>3560</v>
       </c>
     </row>
-    <row r="39" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="E39" s="11"/>
-    </row>
-    <row r="40" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="E40" s="11"/>
-    </row>
-    <row r="41" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="E41" s="11"/>
-    </row>
-    <row r="42" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="E42" s="11"/>
+    <row r="39" spans="3:6">
+      <c r="E39" s="9"/>
+    </row>
+    <row r="40" spans="3:6">
+      <c r="E40" s="9"/>
+    </row>
+    <row r="41" spans="3:6">
+      <c r="E41" s="9"/>
+    </row>
+    <row r="42" spans="3:6">
+      <c r="E42" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="3">
